--- a/linkedin_profiles.xlsx
+++ b/linkedin_profiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bombom\PycharmProjects\scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C298B6-28D1-474A-933E-ADA0483823BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EC81C1-323C-4CAA-9B28-1248B6BC9706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,30 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Names</t>
   </si>
   <si>
-    <t>Sharief kundo Mudrikal</t>
+    <t>Name 1</t>
   </si>
   <si>
-    <t>Jaydee Ballaho</t>
+    <t>Name 2</t>
   </si>
   <si>
-    <t>Jameel Awad</t>
-  </si>
-  <si>
-    <t>Marie Colleen Tingas</t>
-  </si>
-  <si>
-    <t>Allen Tan</t>
-  </si>
-  <si>
-    <t>Aldrikz Suarez</t>
-  </si>
-  <si>
-    <t>Alfaisal Sappari</t>
+    <t>Name 3</t>
   </si>
 </sst>
 </file>
@@ -406,18 +394,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="120.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -425,39 +415,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/linkedin_profiles.xlsx
+++ b/linkedin_profiles.xlsx
@@ -2,54 +2,219 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bombom\PycharmProjects\scraper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaydee\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EC81C1-323C-4CAA-9B28-1248B6BC9706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3A1F570-7606-4BE4-9713-6A99F64B65D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A04EDC00-AF46-43F1-B0E0-72BB78EF3E97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
   <si>
     <t>Names</t>
   </si>
   <si>
-    <t>Name 1</t>
-  </si>
-  <si>
-    <t>Name 2</t>
-  </si>
-  <si>
-    <t>Name 3</t>
+    <t>JEYFRED A. CARIÑO</t>
+  </si>
+  <si>
+    <t>APRIL GRETHIL B. LAPARAN</t>
+  </si>
+  <si>
+    <t>Arvin Dwight Q. Corpuz</t>
+  </si>
+  <si>
+    <t>Iza Jean A. Abad</t>
+  </si>
+  <si>
+    <t>Mark Angelo Panaguiton</t>
+  </si>
+  <si>
+    <t>Ckeanu Richer Q. Locson</t>
+  </si>
+  <si>
+    <t>Joylyn M. Cubile</t>
+  </si>
+  <si>
+    <t>Jethro A. Guerrero</t>
+  </si>
+  <si>
+    <t>Abby E. Quintos</t>
+  </si>
+  <si>
+    <t>JOSEPH FAITH H. BRIGOLE JR</t>
+  </si>
+  <si>
+    <t>EMERSON R. MAGBANUA</t>
+  </si>
+  <si>
+    <t>Mark Anthony D. Tubat</t>
+  </si>
+  <si>
+    <t>KYRILLE S. PILANGA</t>
+  </si>
+  <si>
+    <t>AARON CHRISTIAN D.L MELANO</t>
+  </si>
+  <si>
+    <t>G-Third Francisco</t>
+  </si>
+  <si>
+    <t>Sandy G. Pueblo</t>
+  </si>
+  <si>
+    <t>Don Adrianne U. Sanchez</t>
+  </si>
+  <si>
+    <t>Aizzy Dianne T. Algupera</t>
+  </si>
+  <si>
+    <t>Adzhar K. Wee</t>
+  </si>
+  <si>
+    <t>ALFHADZRY B. JUMLI</t>
+  </si>
+  <si>
+    <t>Nadiya S. Kamlian</t>
+  </si>
+  <si>
+    <t>Jayson E. Beltran</t>
+  </si>
+  <si>
+    <t>France Leoniel P. Rebollos</t>
+  </si>
+  <si>
+    <t>Justin Paul M. Dalay</t>
+  </si>
+  <si>
+    <t>Keano Rae N. Sevilla</t>
+  </si>
+  <si>
+    <t>Arqam J. Singkee</t>
+  </si>
+  <si>
+    <t>Migfren Vin A. Limen</t>
+  </si>
+  <si>
+    <t>Ailo Mark C. Dela Cruz</t>
+  </si>
+  <si>
+    <t>Jhoemer S. Muyco</t>
+  </si>
+  <si>
+    <t>Jessa Francisco</t>
+  </si>
+  <si>
+    <t>JERICO JAMES A. RAMOS</t>
+  </si>
+  <si>
+    <t>ANGEL MAE LUCERO</t>
+  </si>
+  <si>
+    <t>Florence Tubosa</t>
+  </si>
+  <si>
+    <t>Rica Jean Mayormita</t>
+  </si>
+  <si>
+    <t>Norton Van Ian Lim</t>
+  </si>
+  <si>
+    <t>Erica Joy Ignacio</t>
+  </si>
+  <si>
+    <t>Jeus G. Golero</t>
+  </si>
+  <si>
+    <t>Mildred R. Escudero</t>
+  </si>
+  <si>
+    <t>Lester C. Dela Torre</t>
+  </si>
+  <si>
+    <t>John Paul M. Madroñal</t>
+  </si>
+  <si>
+    <t>Mericris L. Dela Calzada</t>
+  </si>
+  <si>
+    <t>Angel M. Ramillano</t>
+  </si>
+  <si>
+    <t>Kristhine Kaye S. Tina-an</t>
+  </si>
+  <si>
+    <t>Vanessamae J. Tingkasan</t>
+  </si>
+  <si>
+    <t>Alnasib H. Munari</t>
+  </si>
+  <si>
+    <t>Franz Louise F. Nuluddin</t>
+  </si>
+  <si>
+    <t>Danny Mae O. Egido</t>
+  </si>
+  <si>
+    <t>Jhon Chris M. Pantaleon</t>
+  </si>
+  <si>
+    <t>Raizza Layne I. Labos</t>
+  </si>
+  <si>
+    <t>Clark Jundele C. Mendoza</t>
+  </si>
+  <si>
+    <t>Cassandra S. Barberan</t>
+  </si>
+  <si>
+    <t>Carvie D.R. Adam</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Year Graduated</t>
+  </si>
+  <si>
+    <t>BS Computer Science</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,7 +225,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -68,36 +233,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -120,44 +267,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -184,14 +331,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -218,6 +383,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -229,208 +412,744 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F15E0E-53E7-4467-95EB-E4851C4E6516}">
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="120.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53">
+        <v>2023</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/linkedin_profiles.xlsx
+++ b/linkedin_profiles.xlsx
@@ -1,54 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bombom\PycharmProjects\scraper\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEED06C-D250-4574-8DD4-6AB18D33F908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Names</t>
-  </si>
-  <si>
-    <t>Allen Tan</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -387,23 +420,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Names</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>LinkedIn Profile</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Job Title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Employment Date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Jaydee Ballaho</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Not found</t>
+        </is>
       </c>
     </row>
   </sheetData>
